--- a/Proyecto/results/all_results_random.xlsx
+++ b/Proyecto/results/all_results_random.xlsx
@@ -444,25 +444,25 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>0.001000165939331055</v>
+        <v>12.00208258628845</v>
       </c>
       <c r="H2">
-        <v>64556</v>
+        <v>76947</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -473,25 +473,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>0.0009996891021728516</v>
+        <v>13.91771984100342</v>
       </c>
       <c r="H3">
-        <v>45144</v>
+        <v>49248</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -502,25 +502,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>0.0009982585906982422</v>
+        <v>1.308655500411987</v>
       </c>
       <c r="H4">
-        <v>40820</v>
+        <v>44112</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -531,25 +531,25 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>0.001028776168823242</v>
+        <v>1.613001108169556</v>
       </c>
       <c r="H5">
-        <v>44004</v>
+        <v>44964</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -560,25 +560,25 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>0.0009872913360595703</v>
+        <v>1.020735025405884</v>
       </c>
       <c r="H6">
-        <v>33568</v>
+        <v>35152</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -589,25 +589,25 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1938767433166504</v>
       </c>
       <c r="H7">
-        <v>26532</v>
+        <v>28676</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -618,25 +618,25 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>0.00099945068359375</v>
+        <v>2.376302719116211</v>
       </c>
       <c r="H8">
-        <v>35620</v>
+        <v>46716</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -647,25 +647,25 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G9">
-        <v>0.001032590866088867</v>
+        <v>0.7905740737915039</v>
       </c>
       <c r="H9">
-        <v>29768</v>
+        <v>34624</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -676,25 +676,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>0.001002311706542969</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>24735</v>
+        <v>25915</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -705,25 +705,25 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11">
-        <v>0.001998186111450195</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H11">
-        <v>35284</v>
+        <v>27188</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -734,25 +734,25 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>0.0009675025939941406</v>
+        <v>0.002000808715820312</v>
       </c>
       <c r="H12">
-        <v>29256</v>
+        <v>21608</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -763,25 +763,25 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13">
-        <v>0.001005649566650391</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>24696</v>
+        <v>20612</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -792,25 +792,25 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>0.001023054122924805</v>
+        <v>10.38743019104004</v>
       </c>
       <c r="H14">
-        <v>26251</v>
+        <v>35092</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -821,22 +821,22 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G15">
-        <v>0.0009961128234863281</v>
+        <v>0.002030611038208008</v>
       </c>
       <c r="H15">
-        <v>29256</v>
+        <v>33536</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -850,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24696</v>
+        <v>27000</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -879,25 +879,25 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>0.0009970664978027344</v>
+        <v>0.0009663105010986328</v>
       </c>
       <c r="H17">
-        <v>38396</v>
+        <v>31516</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -908,25 +908,25 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G18">
-        <v>0.0009999275207519531</v>
+        <v>0.003255605697631836</v>
       </c>
       <c r="H18">
-        <v>30496</v>
+        <v>21608</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -937,25 +937,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>0.001000642776489258</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>25452</v>
+        <v>20612</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -966,25 +966,25 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20">
-        <v>0.001000881195068359</v>
+        <v>0.0009691715240478516</v>
       </c>
       <c r="H20">
-        <v>35673</v>
+        <v>31052</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -995,25 +995,25 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.002971410751342773</v>
       </c>
       <c r="H21">
-        <v>29256</v>
+        <v>21608</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1024,25 +1024,25 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c r="F22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24696</v>
+        <v>20612</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1053,25 +1053,25 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23">
-        <v>0.0009961128234863281</v>
+        <v>40.04736518859863</v>
       </c>
       <c r="H23">
-        <v>42281</v>
+        <v>45156</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1082,22 +1082,22 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0009958744049072266</v>
       </c>
       <c r="H24">
-        <v>30992</v>
+        <v>32728</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1111,22 +1111,22 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E25">
         <v>11</v>
       </c>
       <c r="F25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.00100255012512207</v>
       </c>
       <c r="H25">
-        <v>26888</v>
+        <v>28436</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1140,25 +1140,25 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26">
-        <v>0.001004934310913086</v>
+        <v>10.45225524902344</v>
       </c>
       <c r="H26">
-        <v>28988</v>
+        <v>31732</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1169,22 +1169,22 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="F27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27">
-        <v>0.001001119613647461</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>29472</v>
+        <v>31208</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1198,22 +1198,22 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>0.0009922981262207031</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>25524</v>
+        <v>27000</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1227,22 +1227,22 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="H29">
-        <v>32444</v>
+        <v>38196</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1256,22 +1256,22 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G30">
-        <v>0.003005504608154297</v>
+        <v>0.003000259399414062</v>
       </c>
       <c r="H30">
-        <v>21696</v>
+        <v>23344</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1285,22 +1285,22 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H31">
-        <v>20612</v>
+        <v>23020</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G32">
-        <v>0.0009953975677490234</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H32">
-        <v>42564</v>
+        <v>38196</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1343,25 +1343,25 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G33">
-        <v>0.00099945068359375</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="H33">
-        <v>31208</v>
+        <v>23344</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1372,25 +1372,25 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>0.0009684562683105469</v>
+        <v>0.0009977817535400391</v>
       </c>
       <c r="H34">
-        <v>27000</v>
+        <v>23168</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1401,22 +1401,22 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.08899474143981934</v>
       </c>
       <c r="H35">
-        <v>32444</v>
+        <v>45052</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1430,22 +1430,22 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G36">
-        <v>0.003000020980834961</v>
+        <v>0.004969596862792969</v>
       </c>
       <c r="H36">
-        <v>21608</v>
+        <v>25360</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1459,22 +1459,22 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G37">
-        <v>0.001006841659545898</v>
+        <v>0.0009984970092773438</v>
       </c>
       <c r="H37">
-        <v>20688</v>
+        <v>25400</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>9</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38">
-        <v>0.001000165939331055</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>23036</v>
+        <v>24932</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>9</v>
       </c>
       <c r="F39">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39">
-        <v>0.00297093391418457</v>
+        <v>0.002999305725097656</v>
       </c>
       <c r="H39">
-        <v>21608</v>
+        <v>22616</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1546,22 +1546,22 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>9</v>
       </c>
       <c r="F40">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40">
-        <v>0.0009849071502685547</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>20612</v>
+        <v>22264</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>0.0009999275207519531</v>
       </c>
       <c r="H41">
-        <v>32444</v>
+        <v>38660</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>0.003000259399414062</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="H42">
-        <v>21665</v>
+        <v>23344</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -1633,22 +1633,22 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>0.0009958744049072266</v>
+        <v>0.0009710788726806641</v>
       </c>
       <c r="H43">
-        <v>20612</v>
+        <v>24044</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -1662,25 +1662,25 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>41708</v>
+        <v>34804</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1691,25 +1691,25 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G45">
-        <v>0.00100255012512207</v>
+        <v>0.003967046737670898</v>
       </c>
       <c r="H45">
-        <v>32232</v>
+        <v>22616</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1720,25 +1720,25 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G46">
-        <v>0.0009982585906982422</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="H46">
-        <v>27000</v>
+        <v>22264</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1749,22 +1749,22 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E47">
         <v>9</v>
       </c>
       <c r="F47">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>32444</v>
+        <v>34340</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -1778,22 +1778,22 @@
         <v>9</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>9</v>
       </c>
       <c r="F48">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>0.002999305725097656</v>
+        <v>0.003029346466064453</v>
       </c>
       <c r="H48">
-        <v>21608</v>
+        <v>22616</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>9</v>
       </c>
       <c r="F49">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="H49">
-        <v>20612</v>
+        <v>22264</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -1836,25 +1836,25 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50">
-        <v>0.001003265380859375</v>
+        <v>0.787966251373291</v>
       </c>
       <c r="H50">
-        <v>36148</v>
+        <v>37596</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1865,22 +1865,22 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51">
-        <v>0.001003265380859375</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H51">
-        <v>32728</v>
+        <v>35024</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -1894,22 +1894,22 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E52">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="H52">
-        <v>28508</v>
+        <v>31384</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -1923,25 +1923,25 @@
         <v>8</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53">
-        <v>0.001032829284667969</v>
+        <v>0.0009963512420654297</v>
       </c>
       <c r="H53">
-        <v>41708</v>
+        <v>38660</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1952,25 +1952,25 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54">
-        <v>0.00099945068359375</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="H54">
-        <v>31208</v>
+        <v>23344</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1981,25 +1981,25 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>0.0009698867797851562</v>
       </c>
       <c r="H55">
-        <v>27072</v>
+        <v>24044</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2013,19 +2013,19 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>0.08317852020263672</v>
       </c>
       <c r="H56">
-        <v>32444</v>
+        <v>39412</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -2042,19 +2042,19 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G57">
-        <v>0.00303196907043457</v>
+        <v>0.01925373077392578</v>
       </c>
       <c r="H57">
-        <v>21608</v>
+        <v>25656</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2071,19 +2071,19 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G58">
-        <v>0.001000404357910156</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H58">
-        <v>20612</v>
+        <v>21880</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -2100,19 +2100,19 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>0.00197148323059082</v>
+        <v>0.006031990051269531</v>
       </c>
       <c r="H59">
-        <v>41425</v>
+        <v>45180</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2129,19 +2129,19 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G60">
-        <v>0.001000642776489258</v>
+        <v>0.02315545082092285</v>
       </c>
       <c r="H60">
-        <v>31208</v>
+        <v>33520</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2158,19 +2158,19 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>0.001000881195068359</v>
+        <v>0.002032041549682617</v>
       </c>
       <c r="H61">
-        <v>27000</v>
+        <v>28996</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2187,19 +2187,19 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F62">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>0.2781543731689453</v>
       </c>
       <c r="H62">
-        <v>23036</v>
+        <v>35860</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F63">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G63">
-        <v>0.001991033554077148</v>
+        <v>0.4626269340515137</v>
       </c>
       <c r="H63">
-        <v>21608</v>
+        <v>31562</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H64">
-        <v>20612</v>
+        <v>25364</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -2274,19 +2274,19 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E65">
         <v>9</v>
       </c>
       <c r="F65">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.001001834869384766</v>
       </c>
       <c r="H65">
-        <v>32444</v>
+        <v>32380</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2303,19 +2303,19 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E66">
         <v>9</v>
       </c>
       <c r="F66">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66">
-        <v>0.00300145149230957</v>
+        <v>0.002967596054077148</v>
       </c>
       <c r="H66">
-        <v>21608</v>
+        <v>22120</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E67">
         <v>9</v>
       </c>
       <c r="F67">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>0.0009925365447998047</v>
       </c>
       <c r="H67">
         <v>20612</v>
@@ -2361,19 +2361,19 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.01303005218505859</v>
       </c>
       <c r="H68">
-        <v>32444</v>
+        <v>37860</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2390,22 +2390,22 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G69">
-        <v>0.002996444702148438</v>
+        <v>0.001966714859008789</v>
       </c>
       <c r="H69">
-        <v>21852</v>
+        <v>31208</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2419,22 +2419,22 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G70">
-        <v>0.001031637191772461</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="H70">
-        <v>20612</v>
+        <v>27000</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2448,22 +2448,22 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G71">
-        <v>0.001000404357910156</v>
+        <v>0.001029729843139648</v>
       </c>
       <c r="H71">
-        <v>41708</v>
+        <v>32844</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2477,22 +2477,22 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G72">
-        <v>0.001031875610351562</v>
+        <v>0.002996206283569336</v>
       </c>
       <c r="H72">
-        <v>31208</v>
+        <v>21608</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2506,22 +2506,22 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G73">
-        <v>0.001002073287963867</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>27000</v>
+        <v>20612</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2535,19 +2535,19 @@
         <v>10</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E74">
         <v>9</v>
       </c>
       <c r="F74">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74">
-        <v>0.0009686946868896484</v>
+        <v>0.0009715557098388672</v>
       </c>
       <c r="H74">
-        <v>23036</v>
+        <v>22972</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -2564,19 +2564,19 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E75">
         <v>9</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G75">
-        <v>0.003031253814697266</v>
+        <v>0.002999305725097656</v>
       </c>
       <c r="H75">
-        <v>21650</v>
+        <v>21608</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -2593,16 +2593,16 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <v>9</v>
       </c>
       <c r="F76">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G76">
-        <v>0.001002788543701172</v>
+        <v>0.001004219055175781</v>
       </c>
       <c r="H76">
         <v>20612</v>
@@ -2622,22 +2622,22 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E77">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G77">
-        <v>0.001007080078125</v>
+        <v>0.01800203323364258</v>
       </c>
       <c r="H77">
-        <v>45556</v>
+        <v>41348</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2651,19 +2651,19 @@
         <v>10</v>
       </c>
       <c r="D78">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E78">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78">
-        <v>0.0009949207305908203</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H78">
-        <v>32728</v>
+        <v>33240</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -2680,16 +2680,16 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E79">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G79">
-        <v>0.001030206680297852</v>
+        <v>0.00100398063659668</v>
       </c>
       <c r="H79">
         <v>28436</v>
@@ -2709,22 +2709,22 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G80">
-        <v>0.001000404357910156</v>
+        <v>0.01399993896484375</v>
       </c>
       <c r="H80">
-        <v>41708</v>
+        <v>37748</v>
       </c>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2738,16 +2738,16 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81">
-        <v>0.00101017951965332</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H81">
         <v>31208</v>
@@ -2767,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E82">
         <v>10</v>
       </c>
       <c r="F82">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82">
-        <v>0.0009975433349609375</v>
+        <v>0.00093841552734375</v>
       </c>
       <c r="H82">
         <v>27000</v>
@@ -2793,25 +2793,25 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D83">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="H83">
-        <v>35284</v>
+        <v>37916</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2822,25 +2822,25 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G84">
-        <v>0.00099945068359375</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="H84">
-        <v>28232</v>
+        <v>23344</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2851,25 +2851,25 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G85">
-        <v>0.001000881195068359</v>
+        <v>0.0009958744049072266</v>
       </c>
       <c r="H85">
-        <v>24696</v>
+        <v>23020</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2880,25 +2880,25 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G86">
-        <v>0.00096893310546875</v>
+        <v>0.06202936172485352</v>
       </c>
       <c r="H86">
-        <v>28988</v>
+        <v>36476</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2909,22 +2909,22 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>0.02499747276306152</v>
       </c>
       <c r="H87">
-        <v>29472</v>
+        <v>34744</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -2938,22 +2938,22 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.01800012588500977</v>
       </c>
       <c r="H88">
-        <v>25452</v>
+        <v>30388</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -2967,25 +2967,25 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>10</v>
       </c>
       <c r="F89">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G89">
-        <v>0.001000881195068359</v>
+        <v>0.002000570297241211</v>
       </c>
       <c r="H89">
-        <v>38396</v>
+        <v>37916</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2996,25 +2996,25 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>10</v>
       </c>
       <c r="F90">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G90">
-        <v>0.001000404357910156</v>
+        <v>0.004973888397216797</v>
       </c>
       <c r="H90">
-        <v>29472</v>
+        <v>23344</v>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3025,25 +3025,25 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G91">
-        <v>0.0009980201721191406</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>25452</v>
+        <v>23532</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3054,25 +3054,25 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>9</v>
       </c>
       <c r="F92">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92">
-        <v>0.0009999275207519531</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H92">
-        <v>35620</v>
+        <v>35204</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3083,25 +3083,25 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>9</v>
       </c>
       <c r="F93">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G93">
-        <v>0.0009696483612060547</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="H93">
-        <v>28232</v>
+        <v>22616</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3112,25 +3112,25 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>9</v>
       </c>
       <c r="F94">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>0.0009908676147460938</v>
+        <v>0.001001119613647461</v>
       </c>
       <c r="H94">
-        <v>24696</v>
+        <v>22264</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3141,25 +3141,25 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>0.0009992122650146484</v>
+        <v>0.002001285552978516</v>
       </c>
       <c r="H95">
-        <v>35781</v>
+        <v>38044</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3170,25 +3170,25 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G96">
-        <v>0.0009999275207519531</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="H96">
-        <v>28232</v>
+        <v>23344</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3199,25 +3199,25 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>24696</v>
+        <v>26092</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3228,25 +3228,25 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G98">
-        <v>0.0009961128234863281</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="H98">
-        <v>28988</v>
+        <v>26260</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3257,25 +3257,25 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="H99">
-        <v>29731</v>
+        <v>22616</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3286,25 +3286,25 @@
         <v>10</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>0.0009775161743164062</v>
+        <v>0.001001119613647461</v>
       </c>
       <c r="H100">
-        <v>25452</v>
+        <v>22264</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3315,25 +3315,25 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>9</v>
       </c>
       <c r="F101">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101">
-        <v>0.0009980201721191406</v>
+        <v>0.0009984970092773438</v>
       </c>
       <c r="H101">
-        <v>35620</v>
+        <v>35204</v>
       </c>
       <c r="I101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3344,25 +3344,25 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>9</v>
       </c>
       <c r="F102">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G102">
-        <v>0.0009987354278564453</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="H102">
-        <v>28232</v>
+        <v>22616</v>
       </c>
       <c r="I102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3373,25 +3373,25 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>9</v>
       </c>
       <c r="F103">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H103">
-        <v>24696</v>
+        <v>22264</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3402,25 +3402,25 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G104">
-        <v>0.001002073287963867</v>
+        <v>0.002999782562255859</v>
       </c>
       <c r="H104">
-        <v>42244</v>
+        <v>42524</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3431,22 +3431,22 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G105">
-        <v>0.0009882450103759766</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H105">
-        <v>30992</v>
+        <v>34744</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -3460,22 +3460,22 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D106">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G106">
-        <v>0.001000881195068359</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="H106">
-        <v>26888</v>
+        <v>31384</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -3489,25 +3489,25 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D107">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E107">
         <v>10</v>
       </c>
       <c r="F107">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="H107">
-        <v>38396</v>
+        <v>38044</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3518,25 +3518,25 @@
         <v>9</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E108">
         <v>10</v>
       </c>
       <c r="F108">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G108">
-        <v>0.0009725093841552734</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="H108">
-        <v>29472</v>
+        <v>23344</v>
       </c>
       <c r="I108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3547,25 +3547,25 @@
         <v>10</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E109">
         <v>10</v>
       </c>
       <c r="F109">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G109">
-        <v>0.0009996891021728516</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>25452</v>
+        <v>26092</v>
       </c>
       <c r="I109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3579,22 +3579,22 @@
         <v>9</v>
       </c>
       <c r="D110">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>5.711514234542847</v>
       </c>
       <c r="H110">
-        <v>26212</v>
+        <v>28940</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3608,19 +3608,19 @@
         <v>9</v>
       </c>
       <c r="D111">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F111">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G111">
-        <v>0.0009999275207519531</v>
+        <v>2.351968050003052</v>
       </c>
       <c r="H111">
-        <v>28232</v>
+        <v>28960</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -3637,19 +3637,19 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.4520013332366943</v>
       </c>
       <c r="H112">
-        <v>24696</v>
+        <v>25976</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -3666,19 +3666,19 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G113">
-        <v>0.0009710788726806641</v>
+        <v>0.1491613388061523</v>
       </c>
       <c r="H113">
-        <v>38396</v>
+        <v>41284</v>
       </c>
       <c r="I113" t="b">
         <v>1</v>
@@ -3695,19 +3695,19 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.0020294189453125</v>
       </c>
       <c r="H114">
-        <v>29472</v>
+        <v>30992</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -3724,19 +3724,19 @@
         <v>9</v>
       </c>
       <c r="D115">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G115">
-        <v>0.0009701251983642578</v>
+        <v>0.02000069618225098</v>
       </c>
       <c r="H115">
-        <v>25452</v>
+        <v>27412</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -3753,19 +3753,19 @@
         <v>9</v>
       </c>
       <c r="D116">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E116">
         <v>10</v>
       </c>
       <c r="F116">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G116">
-        <v>0.001029253005981445</v>
+        <v>0.6630308628082275</v>
       </c>
       <c r="H116">
-        <v>38396</v>
+        <v>38460</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -3782,19 +3782,19 @@
         <v>9</v>
       </c>
       <c r="D117">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E117">
         <v>10</v>
       </c>
       <c r="F117">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G117">
-        <v>0.001000881195068359</v>
+        <v>0.0009984970092773438</v>
       </c>
       <c r="H117">
-        <v>29472</v>
+        <v>29752</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -3811,16 +3811,16 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E118">
         <v>10</v>
       </c>
       <c r="F118">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G118">
-        <v>0.0009930133819580078</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>25452</v>
@@ -3840,19 +3840,19 @@
         <v>9</v>
       </c>
       <c r="D119">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F119">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G119">
-        <v>0.001003265380859375</v>
+        <v>0.0981142520904541</v>
       </c>
       <c r="H119">
-        <v>35620</v>
+        <v>41604</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -3869,19 +3869,19 @@
         <v>9</v>
       </c>
       <c r="D120">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E120">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F120">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G120">
-        <v>0.001000881195068359</v>
+        <v>0.745549201965332</v>
       </c>
       <c r="H120">
-        <v>28232</v>
+        <v>30760</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -3898,19 +3898,19 @@
         <v>9</v>
       </c>
       <c r="D121">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F121">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.006003618240356445</v>
       </c>
       <c r="H121">
-        <v>24696</v>
+        <v>27476</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -3927,22 +3927,22 @@
         <v>9</v>
       </c>
       <c r="D122">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G122">
-        <v>0.0009982585906982422</v>
+        <v>15.38310647010803</v>
       </c>
       <c r="H122">
-        <v>26212</v>
+        <v>28956</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3956,19 +3956,19 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F123">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>28232</v>
+        <v>28960</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -3985,19 +3985,19 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F124">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G124">
-        <v>0.001002788543701172</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>24696</v>
+        <v>25452</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -4014,22 +4014,22 @@
         <v>9</v>
       </c>
       <c r="D125">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G125">
-        <v>0.0009970664978027344</v>
+        <v>2.539966821670532</v>
       </c>
       <c r="H125">
-        <v>38396</v>
+        <v>35700</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4043,19 +4043,19 @@
         <v>9</v>
       </c>
       <c r="D126">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G126">
-        <v>0.001002311706542969</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H126">
-        <v>29472</v>
+        <v>27720</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -4072,19 +4072,19 @@
         <v>9</v>
       </c>
       <c r="D127">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E127">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G127">
-        <v>0.0009999275207519531</v>
+        <v>0.0009987354278564453</v>
       </c>
       <c r="H127">
-        <v>25452</v>
+        <v>24696</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -4101,22 +4101,22 @@
         <v>9</v>
       </c>
       <c r="D128">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E128">
         <v>9</v>
       </c>
       <c r="F128">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G128">
-        <v>0.0009953975677490234</v>
+        <v>0.01199984550476074</v>
       </c>
       <c r="H128">
-        <v>35620</v>
+        <v>32692</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4130,22 +4130,22 @@
         <v>9</v>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E129">
         <v>9</v>
       </c>
       <c r="F129">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.03699278831481934</v>
       </c>
       <c r="H129">
-        <v>28232</v>
+        <v>23984</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4159,22 +4159,22 @@
         <v>9</v>
       </c>
       <c r="D130">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E130">
         <v>9</v>
       </c>
       <c r="F130">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>24696</v>
+        <v>20152</v>
       </c>
       <c r="I130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4188,22 +4188,22 @@
         <v>9</v>
       </c>
       <c r="D131">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E131">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G131">
-        <v>0.001010894775390625</v>
+        <v>38.88323211669922</v>
       </c>
       <c r="H131">
-        <v>42244</v>
+        <v>42324</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4217,16 +4217,16 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E132">
         <v>11</v>
       </c>
       <c r="F132">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G132">
-        <v>0.0009975433349609375</v>
+        <v>0.001002073287963867</v>
       </c>
       <c r="H132">
         <v>30992</v>
@@ -4246,16 +4246,16 @@
         <v>9</v>
       </c>
       <c r="D133">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E133">
         <v>11</v>
       </c>
       <c r="F133">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G133">
-        <v>0.001003026962280273</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>26888</v>
@@ -4275,22 +4275,22 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E134">
         <v>10</v>
       </c>
       <c r="F134">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>15.80183029174805</v>
       </c>
       <c r="H134">
-        <v>28988</v>
+        <v>28956</v>
       </c>
       <c r="I134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4304,16 +4304,16 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E135">
         <v>10</v>
       </c>
       <c r="F135">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G135">
-        <v>0.00099945068359375</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H135">
         <v>29472</v>
@@ -4333,16 +4333,16 @@
         <v>9</v>
       </c>
       <c r="D136">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E136">
         <v>10</v>
       </c>
       <c r="F136">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="H136">
         <v>25452</v>
@@ -4359,25 +4359,25 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F137">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G137">
-        <v>0.0009999275207519531</v>
+        <v>0.06401419639587402</v>
       </c>
       <c r="H137">
-        <v>35620</v>
+        <v>39788</v>
       </c>
       <c r="I137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4388,25 +4388,25 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F138">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>0.1639971733093262</v>
       </c>
       <c r="H138">
-        <v>28232</v>
+        <v>27688</v>
       </c>
       <c r="I138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4417,25 +4417,25 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F139">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H139">
-        <v>24696</v>
+        <v>21368</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4446,25 +4446,25 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E140">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>0.0009996891021728516</v>
+        <v>10.64893841743469</v>
       </c>
       <c r="H140">
-        <v>38396</v>
+        <v>46260</v>
       </c>
       <c r="I140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4475,25 +4475,25 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G141">
-        <v>0.001000165939331055</v>
+        <v>15.13503956794739</v>
       </c>
       <c r="H141">
-        <v>29472</v>
+        <v>31056</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4504,25 +4504,25 @@
         <v>10</v>
       </c>
       <c r="C142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G142">
-        <v>0.0009987354278564453</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H142">
-        <v>25452</v>
+        <v>23828</v>
       </c>
       <c r="I142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4533,25 +4533,25 @@
         <v>8</v>
       </c>
       <c r="C143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E143">
         <v>10</v>
       </c>
       <c r="F143">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G143">
-        <v>0.001000881195068359</v>
+        <v>0.2319958209991455</v>
       </c>
       <c r="H143">
-        <v>38396</v>
+        <v>40756</v>
       </c>
       <c r="I143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4562,25 +4562,25 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E144">
         <v>10</v>
       </c>
       <c r="F144">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G144">
-        <v>0.001000642776489258</v>
+        <v>0.5010030269622803</v>
       </c>
       <c r="H144">
-        <v>29472</v>
+        <v>28289</v>
       </c>
       <c r="I144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4591,25 +4591,25 @@
         <v>10</v>
       </c>
       <c r="C145">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E145">
         <v>10</v>
       </c>
       <c r="F145">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>25452</v>
+        <v>21368</v>
       </c>
       <c r="I145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4620,25 +4620,25 @@
         <v>8</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F146">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G146">
-        <v>0.001000165939331055</v>
+        <v>0.7373440265655518</v>
       </c>
       <c r="H146">
-        <v>26212</v>
+        <v>35084</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4649,25 +4649,25 @@
         <v>9</v>
       </c>
       <c r="C147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E147">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F147">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G147">
-        <v>0.001000881195068359</v>
+        <v>0.8498945236206055</v>
       </c>
       <c r="H147">
-        <v>28232</v>
+        <v>30496</v>
       </c>
       <c r="I147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4678,25 +4678,25 @@
         <v>10</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E148">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F148">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G148">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>24696</v>
+        <v>23828</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4707,25 +4707,25 @@
         <v>8</v>
       </c>
       <c r="C149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E149">
         <v>9</v>
       </c>
       <c r="F149">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>0.001487255096435547</v>
       </c>
       <c r="H149">
-        <v>35620</v>
+        <v>32844</v>
       </c>
       <c r="I149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4736,25 +4736,25 @@
         <v>9</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E150">
         <v>9</v>
       </c>
       <c r="F150">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G150">
-        <v>0.00100398063659668</v>
+        <v>0.007002830505371094</v>
       </c>
       <c r="H150">
-        <v>28232</v>
+        <v>22616</v>
       </c>
       <c r="I150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4765,25 +4765,25 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E151">
         <v>9</v>
       </c>
       <c r="F151">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.0009980201721191406</v>
       </c>
       <c r="H151">
-        <v>24696</v>
+        <v>20612</v>
       </c>
       <c r="I151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4794,25 +4794,25 @@
         <v>8</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F152">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G152">
-        <v>0.0009996891021728516</v>
+        <v>0.001513481140136719</v>
       </c>
       <c r="H152">
-        <v>38396</v>
+        <v>33308</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4823,25 +4823,25 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>0.01407456398010254</v>
       </c>
       <c r="H153">
-        <v>29472</v>
+        <v>22616</v>
       </c>
       <c r="I153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4852,25 +4852,25 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F154">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H154">
-        <v>25452</v>
+        <v>20764</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4881,25 +4881,25 @@
         <v>8</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E155">
         <v>9</v>
       </c>
       <c r="F155">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G155">
-        <v>0.001002311706542969</v>
+        <v>0.0009829998016357422</v>
       </c>
       <c r="H155">
-        <v>35620</v>
+        <v>32844</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4910,25 +4910,25 @@
         <v>9</v>
       </c>
       <c r="C156">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E156">
         <v>9</v>
       </c>
       <c r="F156">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G156">
-        <v>0.001030683517456055</v>
+        <v>0.003998279571533203</v>
       </c>
       <c r="H156">
-        <v>28337</v>
+        <v>22616</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4939,25 +4939,25 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E157">
         <v>9</v>
       </c>
       <c r="F157">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G157">
-        <v>0.001000165939331055</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>24696</v>
+        <v>20612</v>
       </c>
       <c r="I157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4968,22 +4968,22 @@
         <v>8</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E158">
         <v>11</v>
       </c>
       <c r="F158">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G158">
-        <v>0.0009996891021728516</v>
+        <v>0.002001523971557617</v>
       </c>
       <c r="H158">
-        <v>33172</v>
+        <v>35732</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
@@ -4997,22 +4997,22 @@
         <v>9</v>
       </c>
       <c r="C159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E159">
         <v>11</v>
       </c>
       <c r="F159">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G159">
-        <v>0.0009958744049072266</v>
+        <v>0.001001834869384766</v>
       </c>
       <c r="H159">
-        <v>30992</v>
+        <v>32728</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
@@ -5026,22 +5026,22 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E160">
         <v>11</v>
       </c>
       <c r="F160">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G160">
-        <v>0.001000165939331055</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H160">
-        <v>26888</v>
+        <v>28436</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
@@ -5055,22 +5055,22 @@
         <v>8</v>
       </c>
       <c r="C161">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E161">
         <v>10</v>
       </c>
       <c r="F161">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G161">
-        <v>0.0009684562683105469</v>
+        <v>0.002985715866088867</v>
       </c>
       <c r="H161">
-        <v>37220</v>
+        <v>41228</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
@@ -5084,22 +5084,22 @@
         <v>9</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E162">
         <v>10</v>
       </c>
       <c r="F162">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G162">
-        <v>0.001000404357910156</v>
+        <v>16.5603973865509</v>
       </c>
       <c r="H162">
-        <v>29472</v>
+        <v>30696</v>
       </c>
       <c r="I162" t="b">
         <v>1</v>
@@ -5113,22 +5113,22 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E163">
         <v>10</v>
       </c>
       <c r="F163">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="H163">
-        <v>25604</v>
+        <v>27000</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
@@ -5142,22 +5142,22 @@
         <v>8</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F164">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>11.21926379203796</v>
       </c>
       <c r="H164">
-        <v>32444</v>
+        <v>39516</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -5171,22 +5171,22 @@
         <v>9</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F165">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G165">
-        <v>0.002995967864990234</v>
+        <v>6.366598844528198</v>
       </c>
       <c r="H165">
-        <v>21608</v>
+        <v>27800</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
@@ -5200,22 +5200,22 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F166">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G166">
-        <v>0.0009996891021728516</v>
+        <v>0.001000642776489258</v>
       </c>
       <c r="H166">
-        <v>20612</v>
+        <v>21428</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -5229,22 +5229,22 @@
         <v>8</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G167">
-        <v>0.001033306121826172</v>
+        <v>0.002001762390136719</v>
       </c>
       <c r="H167">
-        <v>41708</v>
+        <v>41748</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
@@ -5258,22 +5258,22 @@
         <v>9</v>
       </c>
       <c r="C168">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E168">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G168">
-        <v>0.0009937286376953125</v>
+        <v>8.552213430404663</v>
       </c>
       <c r="H168">
-        <v>31208</v>
+        <v>30480</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -5287,22 +5287,22 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E169">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G169">
-        <v>0.0009937286376953125</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H169">
-        <v>27000</v>
+        <v>27448</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
@@ -5316,22 +5316,22 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E170">
         <v>10</v>
       </c>
       <c r="F170">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G170">
-        <v>0.001000165939331055</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H170">
-        <v>37340</v>
+        <v>29172</v>
       </c>
       <c r="I170" t="b">
         <v>1</v>
@@ -5345,22 +5345,22 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E171">
         <v>10</v>
       </c>
       <c r="F171">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G171">
-        <v>0.0009944438934326172</v>
+        <v>9.979594707489014</v>
       </c>
       <c r="H171">
-        <v>31208</v>
+        <v>28960</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -5374,22 +5374,22 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D172">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E172">
         <v>10</v>
       </c>
       <c r="F172">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G172">
-        <v>0.001000404357910156</v>
+        <v>0.001002788543701172</v>
       </c>
       <c r="H172">
-        <v>27000</v>
+        <v>25452</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -5403,22 +5403,22 @@
         <v>8</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D173">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E173">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F173">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>6.928367137908936</v>
       </c>
       <c r="H173">
-        <v>26564</v>
+        <v>41932</v>
       </c>
       <c r="I173" t="b">
         <v>0</v>
@@ -5432,22 +5432,22 @@
         <v>9</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E174">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F174">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G174">
-        <v>0.002971172332763672</v>
+        <v>4.018564462661743</v>
       </c>
       <c r="H174">
-        <v>21608</v>
+        <v>29768</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
@@ -5461,22 +5461,22 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D175">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E175">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F175">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G175">
-        <v>0.00100255012512207</v>
+        <v>0.03099942207336426</v>
       </c>
       <c r="H175">
-        <v>20612</v>
+        <v>26724</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
@@ -5490,22 +5490,22 @@
         <v>8</v>
       </c>
       <c r="C176">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E176">
         <v>9</v>
       </c>
       <c r="F176">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176">
-        <v>0.0009996891021728516</v>
+        <v>0.009967803955078125</v>
       </c>
       <c r="H176">
-        <v>32444</v>
+        <v>33156</v>
       </c>
       <c r="I176" t="b">
         <v>0</v>
@@ -5519,22 +5519,22 @@
         <v>9</v>
       </c>
       <c r="C177">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E177">
         <v>9</v>
       </c>
       <c r="F177">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G177">
-        <v>0.002999782562255859</v>
+        <v>0.09099698066711426</v>
       </c>
       <c r="H177">
-        <v>21608</v>
+        <v>25208</v>
       </c>
       <c r="I177" t="b">
         <v>0</v>
@@ -5548,22 +5548,22 @@
         <v>10</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E178">
         <v>9</v>
       </c>
       <c r="F178">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G178">
-        <v>0.001001596450805664</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H178">
-        <v>20612</v>
+        <v>19640</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -5577,25 +5577,25 @@
         <v>8</v>
       </c>
       <c r="C179">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D179">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F179">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G179">
-        <v>0.001000404357910156</v>
+        <v>3.849603176116943</v>
       </c>
       <c r="H179">
-        <v>32444</v>
+        <v>39892</v>
       </c>
       <c r="I179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5606,25 +5606,25 @@
         <v>9</v>
       </c>
       <c r="C180">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D180">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F180">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G180">
-        <v>0.002991199493408203</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>21608</v>
+        <v>28960</v>
       </c>
       <c r="I180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5635,25 +5635,25 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D181">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F181">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>20612</v>
+        <v>25452</v>
       </c>
       <c r="I181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5664,22 +5664,22 @@
         <v>8</v>
       </c>
       <c r="C182">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D182">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E182">
         <v>9</v>
       </c>
       <c r="F182">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="H182">
-        <v>32444</v>
+        <v>22332</v>
       </c>
       <c r="I182" t="b">
         <v>0</v>
@@ -5693,22 +5693,22 @@
         <v>9</v>
       </c>
       <c r="C183">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E183">
         <v>9</v>
       </c>
       <c r="F183">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G183">
-        <v>0.002997875213623047</v>
+        <v>0.03800344467163086</v>
       </c>
       <c r="H183">
-        <v>21608</v>
+        <v>23984</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -5722,22 +5722,22 @@
         <v>10</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D184">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E184">
         <v>9</v>
       </c>
       <c r="F184">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>20612</v>
+        <v>19640</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
@@ -5751,22 +5751,22 @@
         <v>8</v>
       </c>
       <c r="C185">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E185">
         <v>11</v>
       </c>
       <c r="F185">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G185">
-        <v>0.0009987354278564453</v>
+        <v>0.1601262092590332</v>
       </c>
       <c r="H185">
-        <v>36148</v>
+        <v>42788</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
@@ -5780,22 +5780,22 @@
         <v>9</v>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D186">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E186">
         <v>11</v>
       </c>
       <c r="F186">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>0.0009987354278564453</v>
       </c>
       <c r="H186">
-        <v>32728</v>
+        <v>30992</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
@@ -5809,22 +5809,22 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D187">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E187">
         <v>11</v>
       </c>
       <c r="F187">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G187">
-        <v>0.001991987228393555</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H187">
-        <v>28436</v>
+        <v>26888</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
@@ -5838,22 +5838,22 @@
         <v>8</v>
       </c>
       <c r="C188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D188">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E188">
         <v>10</v>
       </c>
       <c r="F188">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G188">
-        <v>0.00099945068359375</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H188">
-        <v>41884</v>
+        <v>37932</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
@@ -5867,22 +5867,22 @@
         <v>9</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D189">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E189">
         <v>10</v>
       </c>
       <c r="F189">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G189">
-        <v>0.001005887985229492</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H189">
-        <v>31208</v>
+        <v>29472</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
@@ -5896,22 +5896,22 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E190">
         <v>10</v>
       </c>
       <c r="F190">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H190">
-        <v>27000</v>
+        <v>25452</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
@@ -5928,19 +5928,19 @@
         <v>9</v>
       </c>
       <c r="D191">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E191">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F191">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>0.001000404357910156</v>
       </c>
       <c r="H191">
-        <v>35620</v>
+        <v>37164</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
@@ -5957,19 +5957,19 @@
         <v>9</v>
       </c>
       <c r="D192">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E192">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F192">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G192">
-        <v>0.001000642776489258</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>28232</v>
+        <v>29472</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
@@ -5986,19 +5986,19 @@
         <v>9</v>
       </c>
       <c r="D193">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E193">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F193">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G193">
-        <v>0.0009975433349609375</v>
+        <v>0.03208541870117188</v>
       </c>
       <c r="H193">
-        <v>24696</v>
+        <v>26040</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -6015,19 +6015,19 @@
         <v>9</v>
       </c>
       <c r="D194">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G194">
-        <v>0.0009999275207519531</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H194">
-        <v>38187</v>
+        <v>32268</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
@@ -6044,19 +6044,19 @@
         <v>9</v>
       </c>
       <c r="D195">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G195">
-        <v>0.001029729843139648</v>
+        <v>0.0009992122650146484</v>
       </c>
       <c r="H195">
-        <v>29472</v>
+        <v>30992</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
@@ -6073,19 +6073,19 @@
         <v>9</v>
       </c>
       <c r="D196">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G196">
-        <v>0.0009920597076416016</v>
+        <v>0.001001834869384766</v>
       </c>
       <c r="H196">
-        <v>25452</v>
+        <v>26888</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
@@ -6102,22 +6102,22 @@
         <v>9</v>
       </c>
       <c r="D197">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E197">
         <v>10</v>
       </c>
       <c r="F197">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G197">
-        <v>0.001000404357910156</v>
+        <v>0.4262773990631104</v>
       </c>
       <c r="H197">
-        <v>28988</v>
+        <v>39044</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6131,19 +6131,19 @@
         <v>9</v>
       </c>
       <c r="D198">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E198">
         <v>10</v>
       </c>
       <c r="F198">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G198">
-        <v>0.001003265380859375</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="H198">
-        <v>29472</v>
+        <v>29752</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
@@ -6160,13 +6160,13 @@
         <v>9</v>
       </c>
       <c r="D199">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E199">
         <v>10</v>
       </c>
       <c r="F199">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -6189,19 +6189,19 @@
         <v>9</v>
       </c>
       <c r="D200">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E200">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F200">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G200">
-        <v>0.0009999275207519531</v>
+        <v>0.0009982585906982422</v>
       </c>
       <c r="H200">
-        <v>35620</v>
+        <v>39860</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -6218,19 +6218,19 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E201">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F201">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G201">
-        <v>0.001001119613647461</v>
+        <v>0.1401848793029785</v>
       </c>
       <c r="H201">
-        <v>28232</v>
+        <v>31272</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -6247,19 +6247,19 @@
         <v>9</v>
       </c>
       <c r="D202">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E202">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F202">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G202">
-        <v>0.0009698867797851562</v>
+        <v>0.02596759796142578</v>
       </c>
       <c r="H202">
-        <v>24696</v>
+        <v>27412</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
@@ -6276,22 +6276,22 @@
         <v>9</v>
       </c>
       <c r="D203">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E203">
         <v>9</v>
       </c>
       <c r="F203">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G203">
-        <v>0.001000642776489258</v>
+        <v>0.01700067520141602</v>
       </c>
       <c r="H203">
-        <v>35620</v>
+        <v>33716</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6305,22 +6305,22 @@
         <v>9</v>
       </c>
       <c r="D204">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E204">
         <v>9</v>
       </c>
       <c r="F204">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G204">
-        <v>0.0009944438934326172</v>
+        <v>0.3509669303894043</v>
       </c>
       <c r="H204">
-        <v>28232</v>
+        <v>27568</v>
       </c>
       <c r="I204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6334,22 +6334,22 @@
         <v>9</v>
       </c>
       <c r="D205">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E205">
         <v>9</v>
       </c>
       <c r="F205">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G205">
-        <v>0.001002311706542969</v>
+        <v>0.03399753570556641</v>
       </c>
       <c r="H205">
-        <v>24696</v>
+        <v>23684</v>
       </c>
       <c r="I205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6363,22 +6363,22 @@
         <v>9</v>
       </c>
       <c r="D206">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F206">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G206">
-        <v>0.0009975433349609375</v>
+        <v>0.01399755477905273</v>
       </c>
       <c r="H206">
-        <v>35620</v>
+        <v>25772</v>
       </c>
       <c r="I206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6392,19 +6392,19 @@
         <v>9</v>
       </c>
       <c r="D207">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E207">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F207">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H207">
-        <v>28232</v>
+        <v>28960</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -6421,19 +6421,19 @@
         <v>9</v>
       </c>
       <c r="D208">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F208">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>24696</v>
+        <v>25452</v>
       </c>
       <c r="I208" t="b">
         <v>1</v>
@@ -6450,22 +6450,22 @@
         <v>9</v>
       </c>
       <c r="D209">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F209">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G209">
-        <v>0.0009965896606445312</v>
+        <v>0.0110013484954834</v>
       </c>
       <c r="H209">
-        <v>28988</v>
+        <v>32388</v>
       </c>
       <c r="I209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6479,19 +6479,19 @@
         <v>9</v>
       </c>
       <c r="D210">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E210">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F210">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H210">
-        <v>29472</v>
+        <v>27720</v>
       </c>
       <c r="I210" t="b">
         <v>1</v>
@@ -6508,19 +6508,19 @@
         <v>9</v>
       </c>
       <c r="D211">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F211">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G211">
-        <v>0.0009992122650146484</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H211">
-        <v>25452</v>
+        <v>24696</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -6537,22 +6537,22 @@
         <v>9</v>
       </c>
       <c r="D212">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E212">
         <v>11</v>
       </c>
       <c r="F212">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>0.01899933815002441</v>
       </c>
       <c r="H212">
-        <v>42244</v>
+        <v>38668</v>
       </c>
       <c r="I212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6566,16 +6566,16 @@
         <v>9</v>
       </c>
       <c r="D213">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E213">
         <v>11</v>
       </c>
       <c r="F213">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G213">
-        <v>0.00099945068359375</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H213">
         <v>30992</v>
@@ -6595,16 +6595,16 @@
         <v>9</v>
       </c>
       <c r="D214">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E214">
         <v>11</v>
       </c>
       <c r="F214">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G214">
-        <v>0.0009975433349609375</v>
+        <v>0.001000642776489258</v>
       </c>
       <c r="H214">
         <v>26888</v>
@@ -6624,22 +6624,22 @@
         <v>9</v>
       </c>
       <c r="D215">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E215">
         <v>10</v>
       </c>
       <c r="F215">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G215">
-        <v>0.0009975433349609375</v>
+        <v>0.01399803161621094</v>
       </c>
       <c r="H215">
-        <v>38396</v>
+        <v>35068</v>
       </c>
       <c r="I215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6653,16 +6653,16 @@
         <v>9</v>
       </c>
       <c r="D216">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E216">
         <v>10</v>
       </c>
       <c r="F216">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G216">
-        <v>0.0009999275207519531</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H216">
         <v>29472</v>
@@ -6682,16 +6682,16 @@
         <v>9</v>
       </c>
       <c r="D217">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E217">
         <v>10</v>
       </c>
       <c r="F217">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G217">
-        <v>0.0009934902191162109</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H217">
         <v>25452</v>
@@ -6711,19 +6711,19 @@
         <v>11</v>
       </c>
       <c r="D218">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E218">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F218">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G218">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>36196</v>
+        <v>28540</v>
       </c>
       <c r="I218" t="b">
         <v>0</v>
@@ -6740,19 +6740,19 @@
         <v>11</v>
       </c>
       <c r="D219">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E219">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F219">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G219">
-        <v>0.00400090217590332</v>
+        <v>0.002998590469360352</v>
       </c>
       <c r="H219">
-        <v>22616</v>
+        <v>23344</v>
       </c>
       <c r="I219" t="b">
         <v>0</v>
@@ -6769,19 +6769,19 @@
         <v>11</v>
       </c>
       <c r="D220">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E220">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F220">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H220">
-        <v>22264</v>
+        <v>23020</v>
       </c>
       <c r="I220" t="b">
         <v>0</v>
@@ -6798,19 +6798,19 @@
         <v>11</v>
       </c>
       <c r="D221">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>0.003000497817993164</v>
       </c>
       <c r="H221">
-        <v>29468</v>
+        <v>44676</v>
       </c>
       <c r="I221" t="b">
         <v>0</v>
@@ -6827,19 +6827,19 @@
         <v>11</v>
       </c>
       <c r="D222">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G222">
-        <v>0.003969907760620117</v>
+        <v>0.00899815559387207</v>
       </c>
       <c r="H222">
-        <v>23344</v>
+        <v>26368</v>
       </c>
       <c r="I222" t="b">
         <v>0</v>
@@ -6856,19 +6856,19 @@
         <v>11</v>
       </c>
       <c r="D223">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E223">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G223">
-        <v>0.001003503799438477</v>
+        <v>0.001001119613647461</v>
       </c>
       <c r="H223">
-        <v>23020</v>
+        <v>24336</v>
       </c>
       <c r="I223" t="b">
         <v>0</v>
@@ -6885,19 +6885,19 @@
         <v>11</v>
       </c>
       <c r="D224">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E224">
         <v>10</v>
       </c>
       <c r="F224">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G224">
-        <v>0.001001358032226562</v>
+        <v>0.0009360313415527344</v>
       </c>
       <c r="H224">
-        <v>38876</v>
+        <v>37948</v>
       </c>
       <c r="I224" t="b">
         <v>0</v>
@@ -6914,16 +6914,16 @@
         <v>11</v>
       </c>
       <c r="D225">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E225">
         <v>10</v>
       </c>
       <c r="F225">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G225">
-        <v>0.004000425338745117</v>
+        <v>0.003997564315795898</v>
       </c>
       <c r="H225">
         <v>23344</v>
@@ -6943,19 +6943,19 @@
         <v>11</v>
       </c>
       <c r="D226">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E226">
         <v>10</v>
       </c>
       <c r="F226">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G226">
-        <v>0.001000165939331055</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>23092</v>
+        <v>23020</v>
       </c>
       <c r="I226" t="b">
         <v>0</v>
@@ -6972,19 +6972,19 @@
         <v>11</v>
       </c>
       <c r="D227">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E227">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F227">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G227">
-        <v>0.001000642776489258</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H227">
-        <v>36196</v>
+        <v>40356</v>
       </c>
       <c r="I227" t="b">
         <v>0</v>
@@ -7001,19 +7001,19 @@
         <v>11</v>
       </c>
       <c r="D228">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E228">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F228">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G228">
-        <v>0.002971172332763672</v>
+        <v>0.00500178337097168</v>
       </c>
       <c r="H228">
-        <v>22616</v>
+        <v>25360</v>
       </c>
       <c r="I228" t="b">
         <v>0</v>
@@ -7030,19 +7030,19 @@
         <v>11</v>
       </c>
       <c r="D229">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E229">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F229">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>0</v>
       </c>
       <c r="H229">
-        <v>22264</v>
+        <v>24336</v>
       </c>
       <c r="I229" t="b">
         <v>0</v>
@@ -7059,19 +7059,19 @@
         <v>11</v>
       </c>
       <c r="D230">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E230">
         <v>9</v>
       </c>
       <c r="F230">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>0.0009996891021728516</v>
       </c>
       <c r="H230">
-        <v>35860</v>
+        <v>28380</v>
       </c>
       <c r="I230" t="b">
         <v>0</v>
@@ -7088,16 +7088,16 @@
         <v>11</v>
       </c>
       <c r="D231">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E231">
         <v>9</v>
       </c>
       <c r="F231">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G231">
-        <v>0.002997875213623047</v>
+        <v>0.002999067306518555</v>
       </c>
       <c r="H231">
         <v>22616</v>
@@ -7117,16 +7117,16 @@
         <v>11</v>
       </c>
       <c r="D232">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E232">
         <v>9</v>
       </c>
       <c r="F232">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G232">
-        <v>0.001002788543701172</v>
+        <v>0.001000642776489258</v>
       </c>
       <c r="H232">
         <v>22264</v>
@@ -7146,19 +7146,19 @@
         <v>11</v>
       </c>
       <c r="D233">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E233">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F233">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G233">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>26788</v>
+        <v>38412</v>
       </c>
       <c r="I233" t="b">
         <v>0</v>
@@ -7175,19 +7175,19 @@
         <v>11</v>
       </c>
       <c r="D234">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E234">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F234">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G234">
-        <v>0.002969741821289062</v>
+        <v>0.004995822906494141</v>
       </c>
       <c r="H234">
-        <v>22616</v>
+        <v>23344</v>
       </c>
       <c r="I234" t="b">
         <v>0</v>
@@ -7204,19 +7204,19 @@
         <v>11</v>
       </c>
       <c r="D235">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E235">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F235">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>0.001000881195068359</v>
       </c>
       <c r="H235">
-        <v>22264</v>
+        <v>23020</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
@@ -7233,19 +7233,19 @@
         <v>11</v>
       </c>
       <c r="D236">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F236">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>0.001001834869384766</v>
       </c>
       <c r="H236">
-        <v>38876</v>
+        <v>35732</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
@@ -7262,19 +7262,19 @@
         <v>11</v>
       </c>
       <c r="D237">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F237">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G237">
-        <v>0.002996206283569336</v>
+        <v>0.002998113632202148</v>
       </c>
       <c r="H237">
-        <v>23344</v>
+        <v>22616</v>
       </c>
       <c r="I237" t="b">
         <v>0</v>
@@ -7291,19 +7291,19 @@
         <v>11</v>
       </c>
       <c r="D238">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F238">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>23020</v>
+        <v>22264</v>
       </c>
       <c r="I238" t="b">
         <v>0</v>
@@ -7320,19 +7320,19 @@
         <v>11</v>
       </c>
       <c r="D239">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E239">
         <v>9</v>
       </c>
       <c r="F239">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>0.0009982585906982422</v>
       </c>
       <c r="H239">
-        <v>36196</v>
+        <v>34428</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
@@ -7349,16 +7349,16 @@
         <v>11</v>
       </c>
       <c r="D240">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E240">
         <v>9</v>
       </c>
       <c r="F240">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <v>0.003000259399414062</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="H240">
         <v>22616</v>
@@ -7378,16 +7378,16 @@
         <v>11</v>
       </c>
       <c r="D241">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E241">
         <v>9</v>
       </c>
       <c r="F241">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G241">
-        <v>0.001000642776489258</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>22264</v>
@@ -7407,19 +7407,19 @@
         <v>11</v>
       </c>
       <c r="D242">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E242">
         <v>10</v>
       </c>
       <c r="F242">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242">
-        <v>36524</v>
+        <v>29676</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
@@ -7436,16 +7436,16 @@
         <v>11</v>
       </c>
       <c r="D243">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E243">
         <v>10</v>
       </c>
       <c r="F243">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G243">
-        <v>0.002992630004882812</v>
+        <v>0.004001379013061523</v>
       </c>
       <c r="H243">
         <v>23344</v>
@@ -7465,16 +7465,16 @@
         <v>11</v>
       </c>
       <c r="D244">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E244">
         <v>10</v>
       </c>
       <c r="F244">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>0.0009963512420654297</v>
       </c>
       <c r="H244">
         <v>23020</v>
@@ -7494,19 +7494,19 @@
         <v>10</v>
       </c>
       <c r="D245">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E245">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F245">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>0.05352497100830078</v>
       </c>
       <c r="H245">
-        <v>25052</v>
+        <v>39788</v>
       </c>
       <c r="I245" t="b">
         <v>0</v>
@@ -7523,19 +7523,19 @@
         <v>10</v>
       </c>
       <c r="D246">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F246">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G246">
-        <v>0.003032684326171875</v>
+        <v>0.01909136772155762</v>
       </c>
       <c r="H246">
-        <v>21608</v>
+        <v>25656</v>
       </c>
       <c r="I246" t="b">
         <v>0</v>
@@ -7552,19 +7552,19 @@
         <v>10</v>
       </c>
       <c r="D247">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E247">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F247">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G247">
-        <v>0.001001119613647461</v>
+        <v>0.001001834869384766</v>
       </c>
       <c r="H247">
-        <v>20612</v>
+        <v>21368</v>
       </c>
       <c r="I247" t="b">
         <v>0</v>
@@ -7581,22 +7581,22 @@
         <v>10</v>
       </c>
       <c r="D248">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E248">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F248">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G248">
-        <v>0.001009702682495117</v>
+        <v>8.314263343811035</v>
       </c>
       <c r="H248">
-        <v>41708</v>
+        <v>46156</v>
       </c>
       <c r="I248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -7610,22 +7610,22 @@
         <v>10</v>
       </c>
       <c r="D249">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E249">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F249">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G249">
-        <v>0.00100255012512207</v>
+        <v>10.59756898880005</v>
       </c>
       <c r="H249">
-        <v>31208</v>
+        <v>31056</v>
       </c>
       <c r="I249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7639,22 +7639,22 @@
         <v>10</v>
       </c>
       <c r="D250">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E250">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F250">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G250">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>27000</v>
+        <v>23828</v>
       </c>
       <c r="I250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7668,22 +7668,22 @@
         <v>10</v>
       </c>
       <c r="D251">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E251">
         <v>10</v>
       </c>
       <c r="F251">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G251">
-        <v>0.001000165939331055</v>
+        <v>0.1760280132293701</v>
       </c>
       <c r="H251">
-        <v>41708</v>
+        <v>39092</v>
       </c>
       <c r="I251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7697,22 +7697,22 @@
         <v>10</v>
       </c>
       <c r="D252">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E252">
         <v>10</v>
       </c>
       <c r="F252">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G252">
-        <v>0.0009825229644775391</v>
+        <v>0.07297158241271973</v>
       </c>
       <c r="H252">
-        <v>31208</v>
+        <v>27688</v>
       </c>
       <c r="I252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7726,22 +7726,22 @@
         <v>10</v>
       </c>
       <c r="D253">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E253">
         <v>10</v>
       </c>
       <c r="F253">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G253">
-        <v>0.000995635986328125</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>27000</v>
+        <v>21368</v>
       </c>
       <c r="I253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7755,19 +7755,19 @@
         <v>10</v>
       </c>
       <c r="D254">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E254">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F254">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>0.5939993858337402</v>
       </c>
       <c r="H254">
-        <v>32444</v>
+        <v>35604</v>
       </c>
       <c r="I254" t="b">
         <v>0</v>
@@ -7784,19 +7784,19 @@
         <v>10</v>
       </c>
       <c r="D255">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E255">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F255">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G255">
-        <v>0.003000497817993164</v>
+        <v>0.2780003547668457</v>
       </c>
       <c r="H255">
-        <v>21608</v>
+        <v>30216</v>
       </c>
       <c r="I255" t="b">
         <v>0</v>
@@ -7813,19 +7813,19 @@
         <v>10</v>
       </c>
       <c r="D256">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E256">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F256">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G256">
-        <v>0.0009982585906982422</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H256">
-        <v>20612</v>
+        <v>23828</v>
       </c>
       <c r="I256" t="b">
         <v>0</v>
@@ -7842,19 +7842,19 @@
         <v>10</v>
       </c>
       <c r="D257">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E257">
         <v>9</v>
       </c>
       <c r="F257">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G257">
-        <v>0.0009996891021728516</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>23036</v>
+        <v>31516</v>
       </c>
       <c r="I257" t="b">
         <v>0</v>
@@ -7871,16 +7871,16 @@
         <v>10</v>
       </c>
       <c r="D258">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E258">
         <v>9</v>
       </c>
       <c r="F258">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G258">
-        <v>0.003970146179199219</v>
+        <v>0.00299835205078125</v>
       </c>
       <c r="H258">
         <v>21608</v>
@@ -7900,16 +7900,16 @@
         <v>10</v>
       </c>
       <c r="D259">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E259">
         <v>9</v>
       </c>
       <c r="F259">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
       <c r="H259">
         <v>20612</v>
@@ -7929,22 +7929,22 @@
         <v>10</v>
       </c>
       <c r="D260">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F260">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="H260">
-        <v>32444</v>
+        <v>41244</v>
       </c>
       <c r="I260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7958,22 +7958,22 @@
         <v>10</v>
       </c>
       <c r="D261">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E261">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F261">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G261">
-        <v>0.003000020980834961</v>
+        <v>0.0019989013671875</v>
       </c>
       <c r="H261">
-        <v>21608</v>
+        <v>31208</v>
       </c>
       <c r="I261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7987,22 +7987,22 @@
         <v>10</v>
       </c>
       <c r="D262">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E262">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F262">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G262">
-        <v>0.0009989738464355469</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H262">
-        <v>20612</v>
+        <v>27000</v>
       </c>
       <c r="I262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8016,22 +8016,22 @@
         <v>10</v>
       </c>
       <c r="D263">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E263">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F263">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G263">
-        <v>0.001000642776489258</v>
+        <v>0.0009999275207519531</v>
       </c>
       <c r="H263">
-        <v>41708</v>
+        <v>31980</v>
       </c>
       <c r="I263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8045,22 +8045,22 @@
         <v>10</v>
       </c>
       <c r="D264">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E264">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F264">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G264">
-        <v>0.001000165939331055</v>
+        <v>0.002998828887939453</v>
       </c>
       <c r="H264">
-        <v>31208</v>
+        <v>21608</v>
       </c>
       <c r="I264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8074,22 +8074,22 @@
         <v>10</v>
       </c>
       <c r="D265">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E265">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F265">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G265">
         <v>0.0009989738464355469</v>
       </c>
       <c r="H265">
-        <v>27000</v>
+        <v>20612</v>
       </c>
       <c r="I265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -8103,19 +8103,19 @@
         <v>10</v>
       </c>
       <c r="D266">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E266">
         <v>9</v>
       </c>
       <c r="F266">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>32444</v>
+        <v>22108</v>
       </c>
       <c r="I266" t="b">
         <v>0</v>
@@ -8132,16 +8132,16 @@
         <v>10</v>
       </c>
       <c r="D267">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E267">
         <v>9</v>
       </c>
       <c r="F267">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G267">
-        <v>0.001999855041503906</v>
+        <v>0.007998228073120117</v>
       </c>
       <c r="H267">
         <v>21608</v>
@@ -8161,16 +8161,16 @@
         <v>10</v>
       </c>
       <c r="D268">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E268">
         <v>9</v>
       </c>
       <c r="F268">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>0.001002788543701172</v>
       </c>
       <c r="H268">
         <v>20612</v>
@@ -8190,19 +8190,19 @@
         <v>10</v>
       </c>
       <c r="D269">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E269">
         <v>11</v>
       </c>
       <c r="F269">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G269">
-        <v>0.001000404357910156</v>
+        <v>0.01625680923461914</v>
       </c>
       <c r="H269">
-        <v>36148</v>
+        <v>45764</v>
       </c>
       <c r="I269" t="b">
         <v>1</v>
@@ -8219,16 +8219,16 @@
         <v>10</v>
       </c>
       <c r="D270">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E270">
         <v>11</v>
       </c>
       <c r="F270">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="H270">
         <v>32728</v>
@@ -8248,16 +8248,16 @@
         <v>10</v>
       </c>
       <c r="D271">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E271">
         <v>11</v>
       </c>
       <c r="F271">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G271">
-        <v>0.0009992122650146484</v>
+        <v>0.001000404357910156</v>
       </c>
       <c r="H271">
         <v>28436</v>
